--- a/IT Security Skill Tree/IT Security Skill Tree Language Translations.xlsx
+++ b/IT Security Skill Tree/IT Security Skill Tree Language Translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjpip\Dropbox\Projects\Skill Trees\IT Security Skill Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1019319\Dropbox\Projects\Skill Trees\IT Security Skill Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E828075A-1918-4514-BBC4-B7213EB2E88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774082E9-E3A6-4174-9CA4-1D753AD0A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D823F07D-758E-4D99-B237-527D0B71741D}"/>
+    <workbookView xWindow="28680" yWindow="2415" windowWidth="24240" windowHeight="13140" xr2:uid="{D823F07D-758E-4D99-B237-527D0B71741D}"/>
   </bookViews>
   <sheets>
     <sheet name="Translation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>Tile Number</t>
   </si>
@@ -256,13 +256,217 @@
   </si>
   <si>
     <t>Learn about PKI, Certificate Authorities and Trusted Root-CAs</t>
+  </si>
+  <si>
+    <t>Atualizar o sistema operacional do seu computador</t>
+  </si>
+  <si>
+    <t>Atualizar o sistema operacional do seu celular</t>
+  </si>
+  <si>
+    <t>Configurar backups para seus dados</t>
+  </si>
+  <si>
+    <t>Usar senhas complexas, nunca reutilizadas</t>
+  </si>
+  <si>
+    <t>Mudar o nome e senha padrão do roteador</t>
+  </si>
+  <si>
+    <t>Configurar um gerenciador de senhas</t>
+  </si>
+  <si>
+    <t>Identificar e-mails ou mensagens de texto fraudulentos</t>
+  </si>
+  <si>
+    <t>Configurar autenticação de dois fatores ou passkey</t>
+  </si>
+  <si>
+    <t>Bloquear e reportar uma fraude</t>
+  </si>
+  <si>
+    <t>Obter um bloqueador de anúncios</t>
+  </si>
+  <si>
+    <t>Reinstalar um sistema operacional</t>
+  </si>
+  <si>
+    <t>Cadastrar-se no “Have I been pwnd?”</t>
+  </si>
+  <si>
+    <t>Entender HTTPS</t>
+  </si>
+  <si>
+    <t>Gerenciar suas configurações de privacidade nas redes sociais</t>
+  </si>
+  <si>
+    <t>Ver o código fonte de um website</t>
+  </si>
+  <si>
+    <t>Aprender os fundamentos sobre RFID / NFC</t>
+  </si>
+  <si>
+    <t>Aprender a usar GPG</t>
+  </si>
+  <si>
+    <t>Ler a documentação</t>
+  </si>
+  <si>
+    <t>Aprender como usar SSH</t>
+  </si>
+  <si>
+    <t>Aprender sobre SQL Injections</t>
+  </si>
+  <si>
+    <t>Obter uma VPN</t>
+  </si>
+  <si>
+    <t>Aprender sobre rootkit e acesso remoto</t>
+  </si>
+  <si>
+    <t>Aprender sobre malware, ransomware e ameaças recentes</t>
+  </si>
+  <si>
+    <t>Aprender sobre leis de cibersegurança locais</t>
+  </si>
+  <si>
+    <t>Aprender sobre leis de privacidade locais</t>
+  </si>
+  <si>
+    <t>Aprender sobre minimalismo de dados (data minimalism)</t>
+  </si>
+  <si>
+    <t>Aprender sobre WiFi público e sem criptografia</t>
+  </si>
+  <si>
+    <t>Entender riscos de segurança do Bluetooth</t>
+  </si>
+  <si>
+    <t>Aprender sobre TOR</t>
+  </si>
+  <si>
+    <t>Aprender sobre divulgação responsável (responsible disclosure)</t>
+  </si>
+  <si>
+    <t>Aprender sobre keylogging</t>
+  </si>
+  <si>
+    <t>Aprender sobre confiança zero (zero trust)</t>
+  </si>
+  <si>
+    <t>Aprender sobre o padrão ISO 27001</t>
+  </si>
+  <si>
+    <t>Ler detalhes de CVEs</t>
+  </si>
+  <si>
+    <t>Aprender sobre os frameworks do NIST</t>
+  </si>
+  <si>
+    <t>Aprender sobre PKI, Autoridades Certificadoras e Root-Cas confiáveis</t>
+  </si>
+  <si>
+    <t>Aprender sobre criptografia</t>
+  </si>
+  <si>
+    <t>Aprender sobre configurações de firewall e iptables/nftables</t>
+  </si>
+  <si>
+    <t>Usar Kali Linux</t>
+  </si>
+  <si>
+    <t>Aprender sobre Wardriving</t>
+  </si>
+  <si>
+    <t>Aprender sobre certificados X.509</t>
+  </si>
+  <si>
+    <t>Enviar um relatório de bug</t>
+  </si>
+  <si>
+    <t>Revisar e remover software não utilizado</t>
+  </si>
+  <si>
+    <t>Aprender sobre OTP e TOTP</t>
+  </si>
+  <si>
+    <t>Entender o uso de S/MIME</t>
+  </si>
+  <si>
+    <t>Aprender sobre encriptação de ponta a ponta</t>
+  </si>
+  <si>
+    <t>Entender as implicações e riscos de vazamentos de dados</t>
+  </si>
+  <si>
+    <t>Fazer uma revisão e limpeza de dados pessoasis</t>
+  </si>
+  <si>
+    <t>Ensinar uma habilidade de cibersegurança a um amigo</t>
+  </si>
+  <si>
+    <t>Usar um scanner de rootkit</t>
+  </si>
+  <si>
+    <t>Entender sobre impressão digital do navegador e rastreamento do usuário</t>
+  </si>
+  <si>
+    <t>Configurar múltiplos backups para arquivos</t>
+  </si>
+  <si>
+    <t>Configurar um website com certificado TLS</t>
+  </si>
+  <si>
+    <t>Aprender sobre gerenciamento de identidade</t>
+  </si>
+  <si>
+    <t>Aprender como encriptar seus dispositivos</t>
+  </si>
+  <si>
+    <t>Verificar se os endereços de e-mail usam TLS antes de enviar e-mails</t>
+  </si>
+  <si>
+    <t>Aprender a usar wireshark de forma responsável</t>
+  </si>
+  <si>
+    <t>Configurar um filtro de spam para e-mails</t>
+  </si>
+  <si>
+    <t>Fazer um plano de mitigação de emergências</t>
+  </si>
+  <si>
+    <t>Proteger um website limitando o número de tentativas de login</t>
+  </si>
+  <si>
+    <t>Aprender a usar Nmap de forma responsável</t>
+  </si>
+  <si>
+    <t>Fazer o exame LPI Security Essentials</t>
+  </si>
+  <si>
+    <t>Participar em um hackathon</t>
+  </si>
+  <si>
+    <t>Participar em uma atividade de capture de flag</t>
+  </si>
+  <si>
+    <t>Participar em uma atividade red team vs. Blue team</t>
+  </si>
+  <si>
+    <t>Revindicar a recompensa por um bug (bug bounty)</t>
+  </si>
+  <si>
+    <t>Construir um sistema de gerenciamento de TI</t>
+  </si>
+  <si>
+    <t>Dar uma aula sobre cibersegurança</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -327,6 +531,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,26 +924,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7518992-54E2-4B02-9D21-DC46597EBAD3}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.25" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -758,625 +963,761 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="C73" s="5"/>
     </row>
   </sheetData>
@@ -1392,7 +1733,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
